--- a/assignments/advanced-excel/a02-data-validation-data.xlsx
+++ b/assignments/advanced-excel/a02-data-validation-data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\github.com\excel-training\assignments\advanced-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\excel-notes-assignments\assignments\advanced-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB2ED93-B056-4869-AAE2-B3A0B89C5BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704C705B-21BD-4896-BE5E-D38ADDF13377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="5" r:id="rId1"/>
     <sheet name="Description" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -301,17 +301,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,18 +619,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91064D0-EBEF-446F-8A86-2E7B0CCE67F5}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
-    <col min="2" max="2" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -644,7 +644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -658,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -686,7 +686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -700,7 +700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -714,99 +714,94 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
@@ -814,7 +809,17 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6" xr:uid="{44CAE2FF-F4B6-42A3-8A68-E97520651C9E}">
+      <formula1>AND(LEN($A2)=12, LEFT($A2,4)="PRD-", ISNUMBER(--RIGHT($A2,6)))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -827,13 +832,13 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="116.81640625" customWidth="1"/>
+    <col min="1" max="1" width="116.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="262" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:1" ht="262.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
